--- a/WorkBookESKD.xlsx
+++ b/WorkBookESKD.xlsx
@@ -1,47 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio PROJECTS\ESKD\ESKD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA TODO\ESKD-Folder\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773274A-BB04-42E5-8307-4CDDC8297AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B4ABED-ECBE-4CDE-B780-82D9D57E067D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{BFFB19CF-7477-4218-8010-19740A1B1585}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{BFFB19CF-7477-4218-8010-19740A1B1585}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="07-05-22" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Полинкин</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Павлович</t>
+  </si>
+  <si>
+    <t>Технический писатель</t>
+  </si>
+  <si>
+    <t>AlekseyPolinkin</t>
+  </si>
+  <si>
+    <t>Кореньков</t>
+  </si>
+  <si>
+    <t>Конструктор</t>
+  </si>
+  <si>
+    <t>AlekseyKorenkov</t>
   </si>
 </sst>
 </file>
@@ -406,15 +432,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD733317-DC39-4496-B188-93AF8ECBA26B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,49 +458,54 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
